--- a/toc_easyrust_playlist/EasyRust_in_Korean.xlsx
+++ b/toc_easyrust_playlist/EasyRust_in_Korean.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,9 +529,9 @@
       </c>
       <c r="C2" s="10" t="inlineStr">
         <is>
-          <t>1 day, 3:16:59
-98219 secs
-181 videos</t>
+          <t>1 day, 3:35:50
+99350 secs
+184 videos</t>
         </is>
       </c>
       <c r="D2" s="10" t="inlineStr">
@@ -4455,6 +4455,72 @@
       <c r="D180" s="10" t="inlineStr">
         <is>
           <t>2022-07-10T07:55:48Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="12" t="inlineStr">
+        <is>
+          <t>178 Working with files</t>
+        </is>
+      </c>
+      <c r="B181" s="13" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ACufDcoeLpE</t>
+        </is>
+      </c>
+      <c r="C181" s="14" t="inlineStr">
+        <is>
+          <t>00:08:16</t>
+        </is>
+      </c>
+      <c r="D181" s="10" t="inlineStr">
+        <is>
+          <t>2022-07-17T08:17:12Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="12" t="inlineStr">
+        <is>
+          <t>179 Reading files</t>
+        </is>
+      </c>
+      <c r="B182" s="13" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=f2hrKhdvTVg</t>
+        </is>
+      </c>
+      <c r="C182" s="14" t="inlineStr">
+        <is>
+          <t>00:06:28</t>
+        </is>
+      </c>
+      <c r="D182" s="10" t="inlineStr">
+        <is>
+          <t>2022-07-17T08:18:01Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="12" t="inlineStr">
+        <is>
+          <t>180 라방 등 미래계획!</t>
+        </is>
+      </c>
+      <c r="B183" s="13" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=qN9BCzbWxT4</t>
+        </is>
+      </c>
+      <c r="C183" s="14" t="inlineStr">
+        <is>
+          <t>00:04:07</t>
+        </is>
+      </c>
+      <c r="D183" s="10" t="inlineStr">
+        <is>
+          <t>2022-07-17T08:21:46Z</t>
         </is>
       </c>
     </row>
@@ -4638,6 +4704,9 @@
     <hyperlink ref="B178" r:id="rId176"/>
     <hyperlink ref="B179" r:id="rId177"/>
     <hyperlink ref="B180" r:id="rId178"/>
+    <hyperlink ref="B181" r:id="rId179"/>
+    <hyperlink ref="B182" r:id="rId180"/>
+    <hyperlink ref="B183" r:id="rId181"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
